--- a/results/mp/logistic/corona/confidence/210/topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,16 +40,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>sc</t>
@@ -64,7 +61,7 @@
     <t>no</t>
   </si>
   <si>
-    <t>of</t>
+    <t>the</t>
   </si>
   <si>
     <t>negative</t>
@@ -76,12 +73,15 @@
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
@@ -94,70 +94,76 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
+    <t>help</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -515,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,7 +529,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>24</v>
@@ -584,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7534246575342466</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9130434782608695</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -626,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -634,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5405405405405406</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,16 +711,16 @@
         <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,37 +740,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5263157894736842</v>
+        <v>0.3915343915343915</v>
       </c>
       <c r="C6">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>115</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K6">
-        <v>0.8583333333333333</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4232804232804233</v>
+        <v>0.3158914728682171</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="D7">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>109</v>
+        <v>353</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.825065274151436</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>316</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>316</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3197674418604651</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="C8">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8113207547169812</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L8">
-        <v>86</v>
+        <v>311</v>
       </c>
       <c r="M8">
-        <v>86</v>
+        <v>311</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -884,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2147651006711409</v>
+        <v>0.1027777777777778</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -902,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>117</v>
+        <v>323</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.7931034482758621</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -926,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -934,87 +940,63 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1277777777777778</v>
+        <v>0.003692188107267781</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>314</v>
+        <v>5127</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L10">
+        <v>45</v>
+      </c>
+      <c r="M10">
+        <v>45</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K10">
-        <v>0.7804878048780488</v>
-      </c>
-      <c r="L10">
-        <v>64</v>
-      </c>
-      <c r="M10">
-        <v>64</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.008834665544804375</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>0.09</v>
-      </c>
-      <c r="F11">
-        <v>0.91</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>2356</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1026,21 +1008,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7692307692307693</v>
+        <v>0.765625</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1052,21 +1034,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7625</v>
       </c>
       <c r="L13">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="M13">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1078,21 +1060,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L14">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1104,21 +1086,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7435897435897436</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1130,21 +1112,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7394366197183099</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1156,21 +1138,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7142857142857143</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1182,21 +1164,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.7021276595744681</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1208,21 +1190,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6976744186046512</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1234,21 +1216,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.696969696969697</v>
+        <v>0.6875</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1260,21 +1242,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6944444444444444</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1286,21 +1268,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6875</v>
+        <v>0.65</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1312,12 +1294,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23">
         <v>0.64</v>
@@ -1343,16 +1325,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.611764705882353</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L24">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1364,21 +1346,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>132</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5815899581589958</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L25">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1390,21 +1372,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.574468085106383</v>
+        <v>0.5970588235294118</v>
       </c>
       <c r="L26">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="M26">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1416,21 +1398,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5692307692307692</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1442,21 +1424,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.559322033898305</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L28">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="M28">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1468,21 +1450,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>130</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1494,21 +1476,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.449438202247191</v>
+        <v>0.5288135593220339</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1520,21 +1502,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.2564102564102564</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1546,33 +1528,137 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="L32">
+        <v>32</v>
+      </c>
+      <c r="M32">
+        <v>32</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K32">
-        <v>0.004012036108324975</v>
-      </c>
-      <c r="L32">
+      <c r="K33">
+        <v>0.449438202247191</v>
+      </c>
+      <c r="L33">
+        <v>40</v>
+      </c>
+      <c r="M33">
+        <v>40</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34">
+        <v>0.392156862745098</v>
+      </c>
+      <c r="L34">
         <v>20</v>
       </c>
-      <c r="M32">
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>31</v>
       </c>
-      <c r="N32">
-        <v>0.65</v>
-      </c>
-      <c r="O32">
-        <v>0.35</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>4965</v>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="L35">
+        <v>19</v>
+      </c>
+      <c r="M35">
+        <v>19</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36">
+        <v>0.003692188107267781</v>
+      </c>
+      <c r="L36">
+        <v>19</v>
+      </c>
+      <c r="M36">
+        <v>38</v>
+      </c>
+      <c r="N36">
+        <v>0.5</v>
+      </c>
+      <c r="O36">
+        <v>0.5</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>5127</v>
       </c>
     </row>
   </sheetData>
